--- a/PyQt常用类和组件.xlsx
+++ b/PyQt常用类和组件.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="839" firstSheet="23" activeTab="23"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="839" firstSheet="34" activeTab="43"/>
   </bookViews>
   <sheets>
     <sheet name="QSpinBox 组件" sheetId="7" r:id="rId1"/>
@@ -47,13 +47,17 @@
     <sheet name="QListWidgetItem 组件" sheetId="44" r:id="rId38"/>
     <sheet name="QTabWidget 组件" sheetId="45" r:id="rId39"/>
     <sheet name="QDockWidget 组件" sheetId="46" r:id="rId40"/>
+    <sheet name="QScrollArea 组件" sheetId="47" r:id="rId41"/>
+    <sheet name="QTreeWidget 组件" sheetId="48" r:id="rId42"/>
+    <sheet name="QTreeItem 组件" sheetId="49" r:id="rId43"/>
+    <sheet name="QHeaderView 类" sheetId="50" r:id="rId44"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="274">
   <si>
     <r>
       <rPr>
@@ -1079,6 +1083,36 @@
   <si>
     <t>Qt.LeftDockWidgetArea、Qt.RightDockWidgetArea、Qt.TopDockWidgetArea、Qt.BottomDockWidgetArea、Qt.AllDockWidgetAreas、Qt.NoDockWidgetArea</t>
   </si>
+  <si>
+    <t>QScrollArea</t>
+  </si>
+  <si>
+    <t>void setSizeAdjustPolicy(QAbstractScrollAre.SizeAdjustPolicy policy)</t>
+  </si>
+  <si>
+    <t>QAbstractScrollArea.AdjustIgnored、QAbstractScrollArea.AdjustToContents、QAbstractScrollArea.AdjustToContentsOnFirstShow</t>
+  </si>
+  <si>
+    <t>void setWidgetResizable(bool resizable)</t>
+  </si>
+  <si>
+    <t>columnCount: int</t>
+  </si>
+  <si>
+    <t>QTreeWidgetItem headerItem()</t>
+  </si>
+  <si>
+    <t>setHeaderItem(QTreeWidgetItem item)</t>
+  </si>
+  <si>
+    <t>QTreeView</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QHeaderView header() </t>
+  </si>
+  <si>
+    <t>defaultSectionSize: int</t>
+  </si>
 </sst>
 </file>
 
@@ -1144,8 +1178,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1153,14 +1194,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1173,6 +1207,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1188,8 +1268,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1210,29 +1298,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -1244,37 +1309,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1311,25 +1345,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1341,7 +1369,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1353,7 +1381,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1365,31 +1423,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1401,49 +1459,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1461,7 +1495,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1473,25 +1507,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1551,71 +1585,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1639,6 +1608,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1647,10 +1681,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1659,133 +1693,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1811,6 +1845,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1822,9 +1859,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2224,32 +2258,32 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="19"/>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="19"/>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="19"/>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="11"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="19"/>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="20"/>
@@ -2258,13 +2292,13 @@
       <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="11"/>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="11"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="18" t="s">
@@ -2290,7 +2324,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="11"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="6" t="s">
         <v>15</v>
       </c>
@@ -2339,34 +2373,34 @@
       <c r="A2" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="18"/>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="18"/>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="18"/>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="18"/>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>82</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -2375,34 +2409,34 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="18"/>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="18"/>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="18"/>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="18"/>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="11" ht="168.75" spans="1:3">
       <c r="A11" s="18"/>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2463,34 +2497,34 @@
       <c r="A2" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="18"/>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="18"/>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="18"/>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="18"/>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>82</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -2499,34 +2533,34 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="18"/>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="18"/>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="18"/>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="18"/>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="11" ht="168.75" spans="1:3">
       <c r="A11" s="18"/>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2584,11 +2618,11 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2626,7 +2660,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="11"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="6" t="s">
         <v>86</v>
       </c>
@@ -2640,7 +2674,7 @@
       <c r="B11" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2695,11 +2729,11 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="11"/>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="4" t="s">
@@ -2717,7 +2751,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="11"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="6" t="s">
         <v>91</v>
       </c>
@@ -2783,7 +2817,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="11"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="6" t="s">
         <v>96</v>
       </c>
@@ -2862,7 +2896,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="11"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
@@ -2928,7 +2962,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="11"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
@@ -2994,7 +3028,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="11"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
@@ -3077,7 +3111,7 @@
       <c r="B6" s="6"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="11"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
@@ -3169,12 +3203,12 @@
       <c r="B6" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="7" ht="75" spans="1:3">
-      <c r="A7" s="11"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="14" t="s">
         <v>121</v>
       </c>
@@ -3245,7 +3279,7 @@
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3254,7 +3288,7 @@
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3282,7 +3316,7 @@
       <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3310,7 +3344,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="11"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="4" t="s">
         <v>14</v>
       </c>
@@ -3379,12 +3413,12 @@
       <c r="B6" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="7" ht="75" spans="1:3">
-      <c r="A7" s="11"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="14" t="s">
         <v>127</v>
       </c>
@@ -3479,12 +3513,12 @@
       <c r="B6" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="11"/>
+      <c r="A7" s="7"/>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="4" t="s">
@@ -3561,7 +3595,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="11"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
@@ -3627,7 +3661,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="11"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
@@ -3716,7 +3750,7 @@
   <sheetPr/>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -3736,9 +3770,9 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11"/>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="4" t="s">
@@ -3749,7 +3783,7 @@
       <c r="B4" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3767,7 +3801,7 @@
       <c r="B7" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>159</v>
       </c>
     </row>
@@ -3777,7 +3811,7 @@
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="11"/>
+      <c r="A9" s="7"/>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="4" t="s">
@@ -3825,9 +3859,9 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11"/>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="4" t="s">
@@ -3840,7 +3874,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="11"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
@@ -3886,11 +3920,11 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="11"/>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="4" t="s">
@@ -3908,7 +3942,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="11"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="6" t="s">
         <v>164</v>
       </c>
@@ -3967,11 +4001,11 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="11"/>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="6" t="s">
@@ -3994,7 +4028,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="11"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="6" t="s">
         <v>171</v>
       </c>
@@ -4070,11 +4104,11 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="11"/>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="4" t="s">
@@ -4127,11 +4161,11 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="11"/>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="6" t="s">
@@ -4149,7 +4183,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="11"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
@@ -4214,7 +4248,7 @@
       <c r="B2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4223,7 +4257,7 @@
       <c r="B3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4232,7 +4266,7 @@
       <c r="B4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4247,12 +4281,12 @@
       <c r="B6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="10"/>
+      <c r="C7" s="11"/>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="4" t="s">
@@ -4275,7 +4309,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -4321,11 +4355,11 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>180</v>
       </c>
     </row>
@@ -4346,7 +4380,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="11"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
@@ -4392,9 +4426,9 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11"/>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="4" t="s">
@@ -4417,7 +4451,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="11"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="6" t="s">
         <v>186</v>
       </c>
@@ -4483,11 +4517,11 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="11"/>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="6" t="s">
@@ -4501,7 +4535,7 @@
       <c r="B5" s="6"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="11"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
@@ -4552,7 +4586,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -4630,9 +4664,9 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11"/>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="4" t="s">
@@ -4653,7 +4687,7 @@
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="11"/>
+      <c r="A7" s="7"/>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="4" t="s">
@@ -4696,9 +4730,9 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11"/>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="4" t="s">
@@ -4716,7 +4750,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="7" t="s">
         <v>206</v>
       </c>
       <c r="B10" s="13" t="s">
@@ -4759,9 +4793,9 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11"/>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="4" t="s">
@@ -4772,7 +4806,7 @@
       <c r="B5" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>208</v>
       </c>
     </row>
@@ -4847,8 +4881,8 @@
       </c>
     </row>
     <row r="2" ht="37.5" spans="1:3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10" t="s">
         <v>214</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -4922,7 +4956,7 @@
       <c r="B19" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="8" t="s">
         <v>178</v>
       </c>
     </row>
@@ -4957,7 +4991,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="7" t="s">
         <v>226</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -4968,7 +5002,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="11"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="6" t="s">
         <v>229</v>
       </c>
@@ -4977,7 +5011,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="11"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="6" t="s">
         <v>231</v>
       </c>
@@ -4986,7 +5020,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -5149,7 +5183,7 @@
       <c r="B15" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="8" t="s">
         <v>251</v>
       </c>
     </row>
@@ -5199,11 +5233,11 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>253</v>
       </c>
     </row>
@@ -5256,7 +5290,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -5305,7 +5339,7 @@
       <c r="B2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5314,7 +5348,7 @@
       <c r="B3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5323,7 +5357,7 @@
       <c r="B4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5335,7 +5369,7 @@
       <c r="C5" s="20"/>
     </row>
     <row r="6" spans="3:3">
-      <c r="C6" s="10"/>
+      <c r="C6" s="11"/>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="4" t="s">
@@ -5343,7 +5377,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -5351,7 +5385,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="11"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="6" t="s">
         <v>36</v>
       </c>
@@ -5367,7 +5401,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -5417,7 +5451,7 @@
       <c r="B2" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>261</v>
       </c>
     </row>
@@ -5425,12 +5459,268 @@
       <c r="B3" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="16" style="1" customWidth="1"/>
+    <col min="2" max="2" width="97.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="98.0916666666667" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" ht="37.5" spans="1:3">
+      <c r="A6" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A6:A7"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="16" style="1" customWidth="1"/>
+    <col min="2" max="2" width="97.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="98.0916666666667" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="16" style="1" customWidth="1"/>
+    <col min="2" max="2" width="97.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="98.0916666666667" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="16" style="1" customWidth="1"/>
+    <col min="2" max="2" width="97.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="98.0916666666667" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5483,28 +5773,28 @@
       <c r="A2" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="18"/>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="18"/>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="11"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="18"/>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C5" s="20" t="s">
@@ -5513,16 +5803,16 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="18"/>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="18"/>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -5531,7 +5821,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="18"/>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -5540,7 +5830,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="18"/>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -5549,7 +5839,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="18"/>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -5573,7 +5863,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="11"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
@@ -5589,7 +5879,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -5638,28 +5928,28 @@
       <c r="A2" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="18"/>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="18"/>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="11"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="18"/>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C5" s="20" t="s">
@@ -5668,16 +5958,16 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="18"/>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="18"/>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -5686,7 +5976,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="18"/>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -5695,7 +5985,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="18"/>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -5704,7 +5994,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="18"/>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -5712,7 +6002,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="11"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
@@ -5728,7 +6018,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -5775,28 +6065,28 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="19"/>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="19"/>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="19"/>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="11"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="19"/>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C5" s="20" t="s">
@@ -5807,7 +6097,7 @@
       <c r="B6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>57</v>
       </c>
     </row>
@@ -5815,7 +6105,7 @@
       <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="11"/>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="6" t="s">
@@ -5844,7 +6134,7 @@
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="11"/>
+      <c r="A14" s="7"/>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="4" t="s">
@@ -5887,8 +6177,8 @@
       </c>
     </row>
     <row r="2" ht="93.75" spans="1:3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -5919,7 +6209,7 @@
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="11"/>
+      <c r="A9" s="7"/>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="4" t="s">
@@ -5962,11 +6252,11 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>66</v>
       </c>
     </row>
@@ -6005,7 +6295,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -6013,7 +6303,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="11"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>

--- a/PyQt常用类和组件.xlsx
+++ b/PyQt常用类和组件.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="839" firstSheet="34" activeTab="43"/>
+    <workbookView windowWidth="18530" windowHeight="7140" tabRatio="839" firstSheet="37" activeTab="42"/>
   </bookViews>
   <sheets>
     <sheet name="QSpinBox 组件" sheetId="7" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="276">
   <si>
     <r>
       <rPr>
@@ -1111,6 +1111,12 @@
     <t xml:space="preserve">QHeaderView header() </t>
   </si>
   <si>
+    <t>setFlags</t>
+  </si>
+  <si>
+    <t>QTreeWidgetItem topLevelItem(int index)</t>
+  </si>
+  <si>
     <t>defaultSectionSize: int</t>
   </si>
 </sst>
@@ -1119,11 +1125,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1185,45 +1191,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1237,9 +1206,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1247,6 +1224,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1262,7 +1246,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1284,7 +1275,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1299,26 +1321,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1345,13 +1351,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1363,19 +1399,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1393,31 +1459,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1429,7 +1477,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1441,7 +1513,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1453,79 +1531,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1580,31 +1586,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1630,6 +1612,24 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1665,11 +1665,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1681,10 +1687,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1693,133 +1699,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2241,11 +2247,11 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="22.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="47.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="22.8727272727273" style="1" customWidth="1"/>
+    <col min="2" max="2" width="47.8727272727273" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.62727272727273" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
@@ -2354,11 +2360,11 @@
       <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="18.7583333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="47.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="48.625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="18.7545454545455" style="1" customWidth="1"/>
+    <col min="2" max="2" width="47.8727272727273" style="2" customWidth="1"/>
+    <col min="3" max="3" width="48.6272727272727" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
@@ -2431,7 +2437,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" ht="168.75" spans="1:3">
+    <row r="11" ht="157.5" spans="1:3">
       <c r="A11" s="18"/>
       <c r="B11" s="10" t="s">
         <v>88</v>
@@ -2478,11 +2484,11 @@
       <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="18.7583333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="47.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="48.625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="18.7545454545455" style="1" customWidth="1"/>
+    <col min="2" max="2" width="47.8727272727273" style="2" customWidth="1"/>
+    <col min="3" max="3" width="48.6272727272727" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
@@ -2555,7 +2561,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" ht="168.75" spans="1:3">
+    <row r="11" ht="157.5" spans="1:3">
       <c r="A11" s="18"/>
       <c r="B11" s="10" t="s">
         <v>88</v>
@@ -2602,11 +2608,11 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="47.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="70.625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.8727272727273" style="1" customWidth="1"/>
+    <col min="2" max="2" width="47.8727272727273" style="2" customWidth="1"/>
+    <col min="3" max="3" width="70.6272727272727" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
@@ -2670,7 +2676,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" ht="93.75" spans="2:3">
+    <row r="11" ht="87.5" spans="2:3">
       <c r="B11" s="6" t="s">
         <v>88</v>
       </c>
@@ -2713,11 +2719,11 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="47.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.8727272727273" style="1" customWidth="1"/>
+    <col min="2" max="2" width="47.8727272727273" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.62727272727273" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
@@ -2776,11 +2782,11 @@
       <selection activeCell="B7" sqref="B7:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="47.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.8727272727273" style="1" customWidth="1"/>
+    <col min="2" max="2" width="47.8727272727273" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.1272727272727" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
@@ -2860,11 +2866,11 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="47.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.8727272727273" style="1" customWidth="1"/>
+    <col min="2" max="2" width="47.8727272727273" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.62727272727273" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
@@ -2931,11 +2937,11 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="47.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.8727272727273" style="1" customWidth="1"/>
+    <col min="2" max="2" width="47.8727272727273" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.62727272727273" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
@@ -2997,11 +3003,11 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="47.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.3666666666667" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.8727272727273" style="1" customWidth="1"/>
+    <col min="2" max="2" width="47.8727272727273" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.3636363636364" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
@@ -3071,11 +3077,11 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="55.6333333333333" style="2" customWidth="1"/>
-    <col min="3" max="3" width="88.625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.8727272727273" style="1" customWidth="1"/>
+    <col min="2" max="2" width="55.6363636363636" style="2" customWidth="1"/>
+    <col min="3" max="3" width="88.6272727272727" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
@@ -3149,7 +3155,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" ht="75" spans="2:2">
+    <row r="18" ht="71.5" spans="2:2">
       <c r="B18" s="17" t="s">
         <v>116</v>
       </c>
@@ -3169,11 +3175,11 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="55.6333333333333" style="2" customWidth="1"/>
-    <col min="3" max="3" width="60.275" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.8727272727273" style="1" customWidth="1"/>
+    <col min="2" max="2" width="55.6363636363636" style="2" customWidth="1"/>
+    <col min="3" max="3" width="60.2727272727273" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
@@ -3199,7 +3205,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" ht="75" spans="2:3">
+    <row r="6" ht="90" spans="2:3">
       <c r="B6" s="14" t="s">
         <v>119</v>
       </c>
@@ -3207,7 +3213,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" ht="75" spans="1:3">
+    <row r="7" ht="90" spans="1:3">
       <c r="A7" s="7"/>
       <c r="B7" s="14" t="s">
         <v>121</v>
@@ -3216,12 +3222,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" ht="56.25" spans="2:2">
+    <row r="8" ht="54" spans="2:2">
       <c r="B8" s="14" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="9" ht="56.25" spans="2:2">
+    <row r="9" ht="54" spans="2:2">
       <c r="B9" s="14" t="s">
         <v>124</v>
       </c>
@@ -3259,10 +3265,10 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="22.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="47.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22.8727272727273" style="1" customWidth="1"/>
+    <col min="2" max="2" width="47.8727272727273" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3379,11 +3385,11 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="55.6333333333333" style="2" customWidth="1"/>
-    <col min="3" max="3" width="60.275" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.8727272727273" style="1" customWidth="1"/>
+    <col min="2" max="2" width="55.6363636363636" style="2" customWidth="1"/>
+    <col min="3" max="3" width="60.2727272727273" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
@@ -3409,7 +3415,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" ht="75" spans="2:3">
+    <row r="6" ht="90" spans="2:3">
       <c r="B6" s="14" t="s">
         <v>126</v>
       </c>
@@ -3417,7 +3423,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" ht="75" spans="1:3">
+    <row r="7" ht="90" spans="1:3">
       <c r="A7" s="7"/>
       <c r="B7" s="14" t="s">
         <v>127</v>
@@ -3426,12 +3432,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" ht="56.25" spans="2:2">
+    <row r="8" ht="54" spans="2:2">
       <c r="B8" s="14" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="9" ht="56.25" spans="2:2">
+    <row r="9" ht="54" spans="2:2">
       <c r="B9" s="14" t="s">
         <v>129</v>
       </c>
@@ -3476,11 +3482,11 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="55.6333333333333" style="2" customWidth="1"/>
-    <col min="3" max="3" width="51.6333333333333" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.8727272727273" style="1" customWidth="1"/>
+    <col min="2" max="2" width="55.6363636363636" style="2" customWidth="1"/>
+    <col min="3" max="3" width="51.6363636363636" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
@@ -3509,7 +3515,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" ht="56.25" spans="2:3">
+    <row r="6" ht="70" spans="2:3">
       <c r="B6" s="14" t="s">
         <v>134</v>
       </c>
@@ -3546,7 +3552,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" ht="18" customHeight="1" spans="2:2">
+    <row r="18" customHeight="1" spans="2:2">
       <c r="B18" s="16"/>
     </row>
   </sheetData>
@@ -3564,11 +3570,11 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="47.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="60.6333333333333" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.8727272727273" style="1" customWidth="1"/>
+    <col min="2" max="2" width="47.8727272727273" style="2" customWidth="1"/>
+    <col min="3" max="3" width="60.6363636363636" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
@@ -3620,11 +3626,11 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="95.0916666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="60.6333333333333" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.8727272727273" style="1" customWidth="1"/>
+    <col min="2" max="2" width="95.0909090909091" style="2" customWidth="1"/>
+    <col min="3" max="3" width="60.6363636363636" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
@@ -3754,11 +3760,11 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="85.0916666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="71.7583333333333" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.8727272727273" style="1" customWidth="1"/>
+    <col min="2" max="2" width="85.0909090909091" style="2" customWidth="1"/>
+    <col min="3" max="3" width="71.7545454545455" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
@@ -3779,7 +3785,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="56.25" spans="2:3">
+    <row r="4" ht="52.5" spans="2:3">
       <c r="B4" s="6" t="s">
         <v>154</v>
       </c>
@@ -3797,7 +3803,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" ht="56.25" spans="2:3">
+    <row r="7" ht="52.5" spans="2:3">
       <c r="B7" s="6" t="s">
         <v>158</v>
       </c>
@@ -3843,11 +3849,11 @@
       <selection activeCell="B7" sqref="B7:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="57.4583333333333" style="2" customWidth="1"/>
-    <col min="3" max="3" width="70.6333333333333" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.8727272727273" style="1" customWidth="1"/>
+    <col min="2" max="2" width="57.4545454545455" style="2" customWidth="1"/>
+    <col min="3" max="3" width="70.6363636363636" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
@@ -3904,11 +3910,11 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="74.3666666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="70.6333333333333" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.8727272727273" style="1" customWidth="1"/>
+    <col min="2" max="2" width="74.3636363636364" style="2" customWidth="1"/>
+    <col min="3" max="3" width="70.6363636363636" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
@@ -3985,11 +3991,11 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="57.4583333333333" style="2" customWidth="1"/>
-    <col min="3" max="3" width="70.6333333333333" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.8727272727273" style="1" customWidth="1"/>
+    <col min="2" max="2" width="57.4545454545455" style="2" customWidth="1"/>
+    <col min="3" max="3" width="70.6363636363636" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
@@ -4088,11 +4094,11 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="57.4583333333333" style="2" customWidth="1"/>
-    <col min="3" max="3" width="70.6333333333333" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.8727272727273" style="1" customWidth="1"/>
+    <col min="2" max="2" width="57.4545454545455" style="2" customWidth="1"/>
+    <col min="3" max="3" width="70.6363636363636" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
@@ -4145,10 +4151,10 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="57.4583333333333" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.8727272727273" style="1" customWidth="1"/>
+    <col min="2" max="2" width="57.4545454545455" style="2" customWidth="1"/>
     <col min="3" max="3" width="95.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4188,7 +4194,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" ht="37.5" spans="2:3">
+    <row r="8" ht="35" spans="2:3">
       <c r="B8" s="13" t="s">
         <v>177</v>
       </c>
@@ -4226,11 +4232,11 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="23.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="47.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="95.875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="23.6272727272727" style="1" customWidth="1"/>
+    <col min="2" max="2" width="47.8727272727273" style="2" customWidth="1"/>
+    <col min="3" max="3" width="95.8727272727273" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
@@ -4339,11 +4345,11 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="57.4583333333333" style="2" customWidth="1"/>
-    <col min="3" max="3" width="145.758333333333" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.8727272727273" style="1" customWidth="1"/>
+    <col min="2" max="2" width="57.4545454545455" style="2" customWidth="1"/>
+    <col min="3" max="3" width="145.754545454545" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
@@ -4410,11 +4416,11 @@
       <selection activeCell="B4" sqref="B4:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="57.4583333333333" style="2" customWidth="1"/>
-    <col min="3" max="3" width="145.758333333333" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.8727272727273" style="1" customWidth="1"/>
+    <col min="2" max="2" width="57.4545454545455" style="2" customWidth="1"/>
+    <col min="3" max="3" width="145.754545454545" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
@@ -4501,11 +4507,11 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.8727272727273" style="1" customWidth="1"/>
     <col min="2" max="2" width="82" style="2" customWidth="1"/>
-    <col min="3" max="3" width="70.6333333333333" style="3" customWidth="1"/>
+    <col min="3" max="3" width="70.6363636363636" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
@@ -4648,11 +4654,11 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.8727272727273" style="1" customWidth="1"/>
     <col min="2" max="2" width="78.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="145.758333333333" style="3" customWidth="1"/>
+    <col min="3" max="3" width="145.754545454545" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
@@ -4714,11 +4720,11 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="14.5416666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="57.4583333333333" style="2" customWidth="1"/>
-    <col min="3" max="3" width="70.6333333333333" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.5454545454545" style="1" customWidth="1"/>
+    <col min="2" max="2" width="57.4545454545455" style="2" customWidth="1"/>
+    <col min="3" max="3" width="70.6363636363636" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
@@ -4777,11 +4783,11 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="57.4583333333333" style="2" customWidth="1"/>
-    <col min="3" max="3" width="74.625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.8727272727273" style="1" customWidth="1"/>
+    <col min="2" max="2" width="57.4545454545455" style="2" customWidth="1"/>
+    <col min="3" max="3" width="74.6272727272727" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
@@ -4802,7 +4808,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="56.25" spans="2:3">
+    <row r="5" ht="52.5" spans="2:3">
       <c r="B5" s="6" t="s">
         <v>207</v>
       </c>
@@ -4865,11 +4871,11 @@
       <selection activeCell="B10" sqref="B10:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="14.5416666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="68.7583333333333" style="2" customWidth="1"/>
-    <col min="3" max="3" width="141.875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.5454545454545" style="1" customWidth="1"/>
+    <col min="2" max="2" width="68.7545454545455" style="2" customWidth="1"/>
+    <col min="3" max="3" width="141.872727272727" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
@@ -4880,7 +4886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="37.5" spans="1:3">
+    <row r="2" ht="35" spans="1:3">
       <c r="A2" s="9"/>
       <c r="B2" s="10" t="s">
         <v>214</v>
@@ -4952,7 +4958,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="19" ht="37.5" spans="2:3">
+    <row r="19" ht="35" spans="2:3">
       <c r="B19" s="6" t="s">
         <v>225</v>
       </c>
@@ -4975,11 +4981,11 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="14.5416666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="71.275" style="2" customWidth="1"/>
-    <col min="3" max="3" width="148.758333333333" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.5454545454545" style="1" customWidth="1"/>
+    <col min="2" max="2" width="71.2727272727273" style="2" customWidth="1"/>
+    <col min="3" max="3" width="148.754545454545" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
@@ -5111,11 +5117,11 @@
       <selection activeCell="A22" sqref="$A22:$XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="14.5416666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="57.4583333333333" style="2" customWidth="1"/>
-    <col min="3" max="3" width="137.258333333333" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.5454545454545" style="1" customWidth="1"/>
+    <col min="2" max="2" width="57.4545454545455" style="2" customWidth="1"/>
+    <col min="3" max="3" width="137.254545454545" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
@@ -5179,7 +5185,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="15" ht="56.25" spans="2:3">
+    <row r="15" ht="52.5" spans="2:3">
       <c r="B15" s="6" t="s">
         <v>250</v>
       </c>
@@ -5217,11 +5223,11 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="14.5416666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="114.275" style="2" customWidth="1"/>
-    <col min="3" max="3" width="98.0916666666667" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.5454545454545" style="1" customWidth="1"/>
+    <col min="2" max="2" width="114.272727272727" style="2" customWidth="1"/>
+    <col min="3" max="3" width="98.0909090909091" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
@@ -5317,11 +5323,11 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="23.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="47.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="95.875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="23.6272727272727" style="1" customWidth="1"/>
+    <col min="2" max="2" width="47.8727272727273" style="2" customWidth="1"/>
+    <col min="3" max="3" width="95.8727272727273" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
@@ -5429,14 +5435,14 @@
   <dimension ref="B1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="14.5416666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="98.0916666666667" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.5454545454545" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.1272727272727" style="2" customWidth="1"/>
+    <col min="3" max="3" width="98.0909090909091" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
@@ -5447,7 +5453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="56.25" spans="2:3">
+    <row r="2" ht="52.5" spans="2:3">
       <c r="B2" s="6" t="s">
         <v>260</v>
       </c>
@@ -5455,7 +5461,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="3" ht="37.5" spans="2:3">
+    <row r="3" ht="35" spans="2:3">
       <c r="B3" s="6" t="s">
         <v>262</v>
       </c>
@@ -5498,11 +5504,11 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="97.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="98.0916666666667" style="3" customWidth="1"/>
+    <col min="2" max="2" width="97.8727272727273" style="2" customWidth="1"/>
+    <col min="3" max="3" width="98.0909090909091" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
@@ -5526,7 +5532,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" ht="37.5" spans="1:3">
+    <row r="6" ht="35" spans="1:3">
       <c r="A6" s="7" t="s">
         <v>264</v>
       </c>
@@ -5576,11 +5582,11 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="97.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="98.0916666666667" style="3" customWidth="1"/>
+    <col min="2" max="2" width="97.8727272727273" style="2" customWidth="1"/>
+    <col min="3" max="3" width="98.0909090909091" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
@@ -5645,15 +5651,15 @@
   <sheetPr/>
   <dimension ref="B1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="97.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="98.0916666666667" style="3" customWidth="1"/>
+    <col min="2" max="2" width="97.8727272727273" style="2" customWidth="1"/>
+    <col min="3" max="3" width="98.0909090909091" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
@@ -5667,6 +5673,16 @@
     <row r="3" spans="2:2">
       <c r="B3" s="4" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="2" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="2:2">
@@ -5695,15 +5711,15 @@
   <sheetPr/>
   <dimension ref="B1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="97.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="98.0916666666667" style="3" customWidth="1"/>
+    <col min="2" max="2" width="97.8727272727273" style="2" customWidth="1"/>
+    <col min="3" max="3" width="98.0909090909091" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
@@ -5716,7 +5732,7 @@
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="6" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="2:2">
@@ -5754,11 +5770,11 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="23.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="47.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="255.625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="23.6272727272727" style="1" customWidth="1"/>
+    <col min="2" max="2" width="47.8727272727273" style="2" customWidth="1"/>
+    <col min="3" max="3" width="255.627272727273" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
@@ -5909,11 +5925,11 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="23.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="47.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="255.625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="23.6272727272727" style="1" customWidth="1"/>
+    <col min="2" max="2" width="47.8727272727273" style="2" customWidth="1"/>
+    <col min="3" max="3" width="255.627272727273" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
@@ -6048,11 +6064,11 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="47.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="68.7583333333333" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.8727272727273" style="1" customWidth="1"/>
+    <col min="2" max="2" width="47.8727272727273" style="2" customWidth="1"/>
+    <col min="3" max="3" width="68.7545454545455" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
@@ -6161,11 +6177,11 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="47.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="70.625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.8727272727273" style="1" customWidth="1"/>
+    <col min="2" max="2" width="47.8727272727273" style="2" customWidth="1"/>
+    <col min="3" max="3" width="70.6272727272727" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
@@ -6176,7 +6192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="93.75" spans="1:3">
+    <row r="2" ht="87.5" spans="1:3">
       <c r="A2" s="9"/>
       <c r="B2" s="10" t="s">
         <v>60</v>
@@ -6236,11 +6252,11 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="47.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="197.375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.3727272727273" style="1" customWidth="1"/>
+    <col min="2" max="2" width="47.8727272727273" style="2" customWidth="1"/>
+    <col min="3" max="3" width="197.372727272727" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
